--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H2">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I2">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J2">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N2">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O2">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P2">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q2">
-        <v>180.9524355948125</v>
+        <v>183.6944423951163</v>
       </c>
       <c r="R2">
-        <v>180.9524355948125</v>
+        <v>734.777769580465</v>
       </c>
       <c r="S2">
-        <v>0.04624143121520575</v>
+        <v>0.04289630136687148</v>
       </c>
       <c r="T2">
-        <v>0.04624143121520575</v>
+        <v>0.02654001782952318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H3">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I3">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J3">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N3">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O3">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P3">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q3">
-        <v>7.383444517751334</v>
+        <v>8.661037411606667</v>
       </c>
       <c r="R3">
-        <v>7.383444517751334</v>
+        <v>51.96622446964</v>
       </c>
       <c r="S3">
-        <v>0.001886799924392253</v>
+        <v>0.002022524286058126</v>
       </c>
       <c r="T3">
-        <v>0.001886799924392253</v>
+        <v>0.001877009050974311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H4">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I4">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J4">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N4">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O4">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P4">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q4">
-        <v>3.908831166332519</v>
+        <v>4.450747038826833</v>
       </c>
       <c r="R4">
-        <v>3.908831166332519</v>
+        <v>26.704482232961</v>
       </c>
       <c r="S4">
-        <v>0.000998880987236622</v>
+        <v>0.001039337847111168</v>
       </c>
       <c r="T4">
-        <v>0.000998880987236622</v>
+        <v>0.0009645602574444198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H5">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I5">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J5">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N5">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O5">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P5">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q5">
-        <v>9.413724158514622</v>
+        <v>9.773899875607835</v>
       </c>
       <c r="R5">
-        <v>9.413724158514622</v>
+        <v>58.643399253647</v>
       </c>
       <c r="S5">
-        <v>0.002405627073899157</v>
+        <v>0.002282399778279019</v>
       </c>
       <c r="T5">
-        <v>0.002405627073899157</v>
+        <v>0.002118187193747426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H6">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I6">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J6">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N6">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O6">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P6">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q6">
-        <v>55.93263061309745</v>
+        <v>58.29600953643783</v>
       </c>
       <c r="R6">
-        <v>55.93263061309745</v>
+        <v>349.776057218627</v>
       </c>
       <c r="S6">
-        <v>0.01429328587194326</v>
+        <v>0.01361327626985156</v>
       </c>
       <c r="T6">
-        <v>0.01429328587194326</v>
+        <v>0.01263383730324751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4949005713254</v>
+        <v>11.6489035</v>
       </c>
       <c r="H7">
-        <v>11.4949005713254</v>
+        <v>23.297807</v>
       </c>
       <c r="I7">
-        <v>0.07497547618657226</v>
+        <v>0.07290801489222642</v>
       </c>
       <c r="J7">
-        <v>0.07497547618657226</v>
+        <v>0.05097284954994439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N7">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O7">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P7">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q7">
-        <v>35.80372449351412</v>
+        <v>47.3371948457135</v>
       </c>
       <c r="R7">
-        <v>35.80372449351412</v>
+        <v>189.348779382854</v>
       </c>
       <c r="S7">
-        <v>0.009149451113895219</v>
+        <v>0.01105417534405509</v>
       </c>
       <c r="T7">
-        <v>0.009149451113895219</v>
+        <v>0.006839237915007547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H8">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I8">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J8">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N8">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O8">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P8">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q8">
-        <v>595.3750226352813</v>
+        <v>634.8996346379533</v>
       </c>
       <c r="R8">
-        <v>595.3750226352813</v>
+        <v>3809.39780782772</v>
       </c>
       <c r="S8">
-        <v>0.1521449162369283</v>
+        <v>0.1482616768914851</v>
       </c>
       <c r="T8">
-        <v>0.1521449162369283</v>
+        <v>0.1375946441564502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H9">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I9">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J9">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N9">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O9">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P9">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q9">
-        <v>24.29322618638776</v>
+        <v>29.93498015790222</v>
       </c>
       <c r="R9">
-        <v>24.29322618638776</v>
+        <v>269.4148214211201</v>
       </c>
       <c r="S9">
-        <v>0.006208004573139265</v>
+        <v>0.006990412521586615</v>
       </c>
       <c r="T9">
-        <v>0.006208004573139265</v>
+        <v>0.009731206441012651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H10">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I10">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J10">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N10">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O10">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P10">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q10">
-        <v>12.86095120235802</v>
+        <v>15.38303299747644</v>
       </c>
       <c r="R10">
-        <v>12.86095120235802</v>
+        <v>138.447296977288</v>
       </c>
       <c r="S10">
-        <v>0.00328654758600555</v>
+        <v>0.003592243786978182</v>
       </c>
       <c r="T10">
-        <v>0.00328654758600555</v>
+        <v>0.005000687122481234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H11">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I11">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J11">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N11">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O11">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P11">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q11">
-        <v>30.97331193987316</v>
+        <v>33.78134569070845</v>
       </c>
       <c r="R11">
-        <v>30.97331193987316</v>
+        <v>304.0321112163761</v>
       </c>
       <c r="S11">
-        <v>0.007915064911211479</v>
+        <v>0.007888615281077338</v>
       </c>
       <c r="T11">
-        <v>0.007915064911211479</v>
+        <v>0.0109815756361782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H12">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I12">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J12">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N12">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O12">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P12">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q12">
-        <v>184.0311853656994</v>
+        <v>201.4873976204684</v>
       </c>
       <c r="R12">
-        <v>184.0311853656994</v>
+        <v>1813.386578584216</v>
       </c>
       <c r="S12">
-        <v>0.04702818932261292</v>
+        <v>0.0470513098668687</v>
       </c>
       <c r="T12">
-        <v>0.04702818932261292</v>
+        <v>0.06549914017529723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.8208597488442</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H13">
-        <v>37.8208597488442</v>
+        <v>120.785656</v>
       </c>
       <c r="I13">
-        <v>0.246686515630139</v>
+        <v>0.2519905959794224</v>
       </c>
       <c r="J13">
-        <v>0.246686515630139</v>
+        <v>0.2642647469385998</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N13">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O13">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P13">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q13">
-        <v>117.8024667680375</v>
+        <v>163.6106532155387</v>
       </c>
       <c r="R13">
-        <v>117.8024667680375</v>
+        <v>981.663919293232</v>
       </c>
       <c r="S13">
-        <v>0.03010379300024148</v>
+        <v>0.03820633763142655</v>
       </c>
       <c r="T13">
-        <v>0.03010379300024148</v>
+        <v>0.0354574934071803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H14">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I14">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J14">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N14">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O14">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P14">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q14">
-        <v>846.0501574285845</v>
+        <v>853.2063374096408</v>
       </c>
       <c r="R14">
-        <v>846.0501574285845</v>
+        <v>5119.238024457844</v>
       </c>
       <c r="S14">
-        <v>0.2162036119091034</v>
+        <v>0.1992406286246013</v>
       </c>
       <c r="T14">
-        <v>0.2162036119091034</v>
+        <v>0.1849057961024851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H15">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I15">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J15">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N15">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O15">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P15">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q15">
-        <v>34.5215822935727</v>
+        <v>40.22795633756889</v>
       </c>
       <c r="R15">
-        <v>34.5215822935727</v>
+        <v>362.05160703812</v>
       </c>
       <c r="S15">
-        <v>0.008821806503023768</v>
+        <v>0.00939402692825061</v>
       </c>
       <c r="T15">
-        <v>0.008821806503023768</v>
+        <v>0.01307722756975293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H16">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I16">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J16">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N16">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O16">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P16">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q16">
-        <v>18.27589229604263</v>
+        <v>20.67240320513478</v>
       </c>
       <c r="R16">
-        <v>18.27589229604263</v>
+        <v>186.051628846213</v>
       </c>
       <c r="S16">
-        <v>0.004670306944065201</v>
+        <v>0.004827416803158097</v>
       </c>
       <c r="T16">
-        <v>0.004670306944065201</v>
+        <v>0.006720145534083942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H17">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I17">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J17">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N17">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O17">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P17">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q17">
-        <v>44.01423379641366</v>
+        <v>45.39687323331678</v>
       </c>
       <c r="R17">
-        <v>44.01423379641366</v>
+        <v>408.5718590998511</v>
       </c>
       <c r="S17">
-        <v>0.011247603039421</v>
+        <v>0.01060107170330914</v>
       </c>
       <c r="T17">
-        <v>0.011247603039421</v>
+        <v>0.01475752924771088</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H18">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I18">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J18">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N18">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O18">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P18">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q18">
-        <v>261.5151919898367</v>
+        <v>270.7677169415767</v>
       </c>
       <c r="R18">
-        <v>261.5151919898367</v>
+        <v>2436.909452474191</v>
       </c>
       <c r="S18">
-        <v>0.06682881455769712</v>
+        <v>0.06322964067341008</v>
       </c>
       <c r="T18">
-        <v>0.06682881455769712</v>
+        <v>0.08802065467294462</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.7448551384659</v>
+        <v>54.10571033333333</v>
       </c>
       <c r="H19">
-        <v>53.7448551384659</v>
+        <v>162.317131</v>
       </c>
       <c r="I19">
-        <v>0.3505507578409793</v>
+        <v>0.338636158736928</v>
       </c>
       <c r="J19">
-        <v>0.3505507578409793</v>
+        <v>0.3551307081323841</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N19">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O19">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P19">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q19">
-        <v>167.4017077730656</v>
+        <v>219.8672649588636</v>
       </c>
       <c r="R19">
-        <v>167.4017077730656</v>
+        <v>1319.203589753182</v>
       </c>
       <c r="S19">
-        <v>0.04277861488766885</v>
+        <v>0.05134337400419875</v>
       </c>
       <c r="T19">
-        <v>0.04277861488766885</v>
+        <v>0.0476493550054066</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H20">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I20">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J20">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N20">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O20">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P20">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q20">
-        <v>512.5502779289477</v>
+        <v>541.7255587313541</v>
       </c>
       <c r="R20">
-        <v>512.5502779289477</v>
+        <v>3250.353352388125</v>
       </c>
       <c r="S20">
-        <v>0.1309794938281863</v>
+        <v>0.1265036792756818</v>
       </c>
       <c r="T20">
-        <v>0.1309794938281863</v>
+        <v>0.1174020765134002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H21">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I21">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J21">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N21">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O21">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P21">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q21">
-        <v>20.91370877217914</v>
+        <v>25.54190137611111</v>
       </c>
       <c r="R21">
-        <v>20.91370877217914</v>
+        <v>229.877112385</v>
       </c>
       <c r="S21">
-        <v>0.005344386896283868</v>
+        <v>0.005964541358066153</v>
       </c>
       <c r="T21">
-        <v>0.005344386896283868</v>
+        <v>0.008303112742211363</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H22">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I22">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J22">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N22">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O22">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P22">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q22">
-        <v>11.07181837091835</v>
+        <v>13.12551101134722</v>
       </c>
       <c r="R22">
-        <v>11.07181837091835</v>
+        <v>118.129599102125</v>
       </c>
       <c r="S22">
-        <v>0.002829344219342187</v>
+        <v>0.003065067557819101</v>
       </c>
       <c r="T22">
-        <v>0.002829344219342187</v>
+        <v>0.004266816166954672</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H23">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I23">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J23">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N23">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O23">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P23">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q23">
-        <v>26.66450395062513</v>
+        <v>28.82379729109723</v>
       </c>
       <c r="R23">
-        <v>26.66450395062513</v>
+        <v>259.414175619875</v>
       </c>
       <c r="S23">
-        <v>0.006813971977041249</v>
+        <v>0.00673092924867602</v>
       </c>
       <c r="T23">
-        <v>0.006813971977041249</v>
+        <v>0.00936998522711646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H24">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I24">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J24">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N24">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O24">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P24">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q24">
-        <v>158.4299502341825</v>
+        <v>171.9183113335972</v>
       </c>
       <c r="R24">
-        <v>158.4299502341825</v>
+        <v>1547.264802002375</v>
       </c>
       <c r="S24">
-        <v>0.04048593002962841</v>
+        <v>0.04014634083260477</v>
       </c>
       <c r="T24">
-        <v>0.04048593002962841</v>
+        <v>0.05588687781828672</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.5594649402296</v>
+        <v>34.35329166666666</v>
       </c>
       <c r="H25">
-        <v>32.5594649402296</v>
+        <v>103.059875</v>
       </c>
       <c r="I25">
-        <v>0.2123690738450854</v>
+        <v>0.2150099621333743</v>
       </c>
       <c r="J25">
-        <v>0.2123690738450854</v>
+        <v>0.2254828320541532</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N25">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O25">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P25">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q25">
-        <v>101.4145450970002</v>
+        <v>139.6001315674583</v>
       </c>
       <c r="R25">
-        <v>101.4145450970002</v>
+        <v>837.6007894047499</v>
       </c>
       <c r="S25">
-        <v>0.02591594689460346</v>
+        <v>0.03259940386052641</v>
       </c>
       <c r="T25">
-        <v>0.02591594689460346</v>
+        <v>0.03025396358618382</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H26">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I26">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J26">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N26">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O26">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P26">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q26">
-        <v>133.3161173079892</v>
+        <v>138.6350765754584</v>
       </c>
       <c r="R26">
-        <v>133.3161173079892</v>
+        <v>831.81045945275</v>
       </c>
       <c r="S26">
-        <v>0.03406822377444922</v>
+        <v>0.03237404434919514</v>
       </c>
       <c r="T26">
-        <v>0.03406822377444922</v>
+        <v>0.03004481809141383</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H27">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I27">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J27">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N27">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O27">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P27">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q27">
-        <v>5.439728690193907</v>
+        <v>6.536526468222223</v>
       </c>
       <c r="R27">
-        <v>5.439728690193907</v>
+        <v>58.828738214</v>
       </c>
       <c r="S27">
-        <v>0.001390093696335933</v>
+        <v>0.001526408777628033</v>
       </c>
       <c r="T27">
-        <v>0.001390093696335933</v>
+        <v>0.002124881597846072</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H28">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I28">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J28">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N28">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O28">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P28">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q28">
-        <v>2.879818625236838</v>
+        <v>3.359000133594445</v>
       </c>
       <c r="R28">
-        <v>2.879818625236838</v>
+        <v>30.23100120235</v>
       </c>
       <c r="S28">
-        <v>0.0007359223125868508</v>
+        <v>0.0007843932573207759</v>
       </c>
       <c r="T28">
-        <v>0.0007359223125868508</v>
+        <v>0.001091937377709197</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H29">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I29">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J29">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N29">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O29">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P29">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q29">
-        <v>6.935530600051041</v>
+        <v>7.376409106494446</v>
       </c>
       <c r="R29">
-        <v>6.935530600051041</v>
+        <v>66.38768195845</v>
       </c>
       <c r="S29">
-        <v>0.001772337908185685</v>
+        <v>0.001722538057830395</v>
       </c>
       <c r="T29">
-        <v>0.001772337908185685</v>
+        <v>0.002397909049213593</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H30">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I30">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J30">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N30">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O30">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P30">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q30">
-        <v>41.20818335298436</v>
+        <v>43.99627795349444</v>
       </c>
       <c r="R30">
-        <v>41.20818335298436</v>
+        <v>395.96650158145</v>
       </c>
       <c r="S30">
-        <v>0.01053053179282678</v>
+        <v>0.01027400488281684</v>
       </c>
       <c r="T30">
-        <v>0.01053053179282678</v>
+        <v>0.01430222639678645</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.468830540871821</v>
+        <v>8.791483333333334</v>
       </c>
       <c r="H31">
-        <v>8.468830540871821</v>
+        <v>26.37445</v>
       </c>
       <c r="I31">
-        <v>0.05523793777992102</v>
+        <v>0.05502402846683614</v>
       </c>
       <c r="J31">
-        <v>0.05523793777992102</v>
+        <v>0.05770418099061989</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N31">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O31">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P31">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q31">
-        <v>26.37827735752838</v>
+        <v>35.72560795381666</v>
       </c>
       <c r="R31">
-        <v>26.37827735752838</v>
+        <v>214.3536477229</v>
       </c>
       <c r="S31">
-        <v>0.006740828295536551</v>
+        <v>0.008342639142044963</v>
       </c>
       <c r="T31">
-        <v>0.006740828295536551</v>
+        <v>0.007742408477650742</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H32">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I32">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J32">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.7419748411054</v>
+        <v>15.7692475</v>
       </c>
       <c r="N32">
-        <v>15.7419748411054</v>
+        <v>31.538495</v>
       </c>
       <c r="O32">
-        <v>0.6167540850309046</v>
+        <v>0.5883619438861605</v>
       </c>
       <c r="P32">
-        <v>0.6167540850309046</v>
+        <v>0.520669691097388</v>
       </c>
       <c r="Q32">
-        <v>145.244302863441</v>
+        <v>167.3759677739388</v>
       </c>
       <c r="R32">
-        <v>145.244302863441</v>
+        <v>669.5038710957551</v>
       </c>
       <c r="S32">
-        <v>0.03711640806703161</v>
+        <v>0.03908561337832576</v>
       </c>
       <c r="T32">
-        <v>0.03711640806703161</v>
+        <v>0.02418233840411566</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H33">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I33">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J33">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.64232347830565</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N33">
-        <v>0.64232347830565</v>
+        <v>2.23052</v>
       </c>
       <c r="O33">
-        <v>0.02516556106555505</v>
+        <v>0.02774076744577188</v>
       </c>
       <c r="P33">
-        <v>0.02516556106555505</v>
+        <v>0.03682370257003532</v>
       </c>
       <c r="Q33">
-        <v>5.926437233003075</v>
+        <v>7.891635151246668</v>
       </c>
       <c r="R33">
-        <v>5.926437233003075</v>
+        <v>47.34981090748001</v>
       </c>
       <c r="S33">
-        <v>0.001514469472379969</v>
+        <v>0.001842853574182348</v>
       </c>
       <c r="T33">
-        <v>0.001514469472379969</v>
+        <v>0.001710265168237992</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H34">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I34">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J34">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.340049149801547</v>
+        <v>0.3820743333333333</v>
       </c>
       <c r="N34">
-        <v>0.340049149801547</v>
+        <v>1.146223</v>
       </c>
       <c r="O34">
-        <v>0.01332276949800176</v>
+        <v>0.01425546764162392</v>
       </c>
       <c r="P34">
-        <v>0.01332276949800176</v>
+        <v>0.01892302011680397</v>
       </c>
       <c r="Q34">
-        <v>3.137484477059636</v>
+        <v>4.055365438537834</v>
       </c>
       <c r="R34">
-        <v>3.137484477059636</v>
+        <v>24.332192631227</v>
       </c>
       <c r="S34">
-        <v>0.0008017674487653487</v>
+        <v>0.0009470083892365967</v>
       </c>
       <c r="T34">
-        <v>0.0008017674487653487</v>
+        <v>0.0008788736581305058</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H35">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I35">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J35">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.818947854320517</v>
+        <v>0.8390403333333335</v>
       </c>
       <c r="N35">
-        <v>0.818947854320517</v>
+        <v>2.517121</v>
       </c>
       <c r="O35">
-        <v>0.03208551910911361</v>
+        <v>0.03130519712617182</v>
       </c>
       <c r="P35">
-        <v>0.03208551910911361</v>
+        <v>0.04155520463245784</v>
       </c>
       <c r="Q35">
-        <v>7.556072944018368</v>
+        <v>8.905636606504835</v>
       </c>
       <c r="R35">
-        <v>7.556072944018368</v>
+        <v>53.43381963902901</v>
       </c>
       <c r="S35">
-        <v>0.001930914199355044</v>
+        <v>0.002079643056999913</v>
       </c>
       <c r="T35">
-        <v>0.001930914199355044</v>
+        <v>0.001930018278491286</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H36">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I36">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J36">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.86586467329906</v>
+        <v>5.004420333333333</v>
       </c>
       <c r="N36">
-        <v>4.86586467329906</v>
+        <v>15.013261</v>
       </c>
       <c r="O36">
-        <v>0.1906394810534477</v>
+        <v>0.1867185149667685</v>
       </c>
       <c r="P36">
-        <v>0.1906394810534477</v>
+        <v>0.2478542481889025</v>
       </c>
       <c r="Q36">
-        <v>44.89520085216577</v>
+        <v>53.11729024731483</v>
       </c>
       <c r="R36">
-        <v>44.89520085216577</v>
+        <v>318.703741483889</v>
       </c>
       <c r="S36">
-        <v>0.01147272947873924</v>
+        <v>0.0124039424412166</v>
       </c>
       <c r="T36">
-        <v>0.01147272947873924</v>
+        <v>0.01151151182234003</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.22656174523793</v>
+        <v>10.6140745</v>
       </c>
       <c r="H37">
-        <v>9.22656174523793</v>
+        <v>21.228149</v>
       </c>
       <c r="I37">
-        <v>0.06018023871730298</v>
+        <v>0.06643123979121304</v>
       </c>
       <c r="J37">
-        <v>0.06018023871730298</v>
+        <v>0.04644468233429878</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.11474851577475</v>
+        <v>4.063661</v>
       </c>
       <c r="N37">
-        <v>3.11474851577475</v>
+        <v>8.127321999999999</v>
       </c>
       <c r="O37">
-        <v>0.1220325842429773</v>
+        <v>0.1516181089335036</v>
       </c>
       <c r="P37">
-        <v>0.1220325842429773</v>
+        <v>0.1341741333944123</v>
       </c>
       <c r="Q37">
-        <v>28.73841950168393</v>
+        <v>43.1320005967445</v>
       </c>
       <c r="R37">
-        <v>28.73841950168393</v>
+        <v>172.528002386978</v>
       </c>
       <c r="S37">
-        <v>0.007343950051031761</v>
+        <v>0.01007217895125184</v>
       </c>
       <c r="T37">
-        <v>0.007343950051031761</v>
+        <v>0.006231675002983309</v>
       </c>
     </row>
   </sheetData>
